--- a/Assignment/module2/assignment2/testcaseexample.xlsx
+++ b/Assignment/module2/assignment2/testcaseexample.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\assignmentsquestionexcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Software Testing\Assignment\module2\assignment2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{386004A3-B551-4EA9-A7F6-8DF3DDB24D75}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51408268-E281-479E-A8B3-15C5BB64728B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6810" activeTab="1" xr2:uid="{48A82D6F-2BD8-4E63-B980-39C86B5E3423}"/>
   </bookViews>
@@ -1783,7 +1783,7 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection sqref="A1:O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
